--- a/data-raw/passeggeri/car_hev.xlsx
+++ b/data-raw/passeggeri/car_hev.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Inventory</t>
+          <t>Inventory2</t>
         </is>
       </c>
     </row>
